--- a/BackTest/2019-10-24 BackTest AE.xlsx
+++ b/BackTest/2019-10-24 BackTest AE.xlsx
@@ -917,7 +917,9 @@
       <c r="J12" t="n">
         <v>40</v>
       </c>
-      <c r="K12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>-20</v>
+      </c>
       <c r="L12" t="n">
         <v>233.9</v>
       </c>
@@ -962,7 +964,9 @@
       <c r="J13" t="n">
         <v>44</v>
       </c>
-      <c r="K13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>-9.090909090909092</v>
+      </c>
       <c r="L13" t="n">
         <v>233.5</v>
       </c>
@@ -1007,7 +1011,9 @@
       <c r="J14" t="n">
         <v>44</v>
       </c>
-      <c r="K14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>-6.976744186046512</v>
+      </c>
       <c r="L14" t="n">
         <v>233.1</v>
       </c>
@@ -1052,7 +1058,9 @@
       <c r="J15" t="n">
         <v>44</v>
       </c>
-      <c r="K15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>-15</v>
+      </c>
       <c r="L15" t="n">
         <v>232.8</v>
       </c>
@@ -1097,7 +1105,9 @@
       <c r="J16" t="n">
         <v>47</v>
       </c>
-      <c r="K16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>-19.04761904761905</v>
+      </c>
       <c r="L16" t="n">
         <v>231.9</v>
       </c>
@@ -1142,7 +1152,9 @@
       <c r="J17" t="n">
         <v>50</v>
       </c>
-      <c r="K17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>-4.761904761904762</v>
+      </c>
       <c r="L17" t="n">
         <v>231.4</v>
       </c>
@@ -1187,7 +1199,9 @@
       <c r="J18" t="n">
         <v>51</v>
       </c>
-      <c r="K18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>16.66666666666666</v>
+      </c>
       <c r="L18" t="n">
         <v>231.3</v>
       </c>
@@ -1232,7 +1246,9 @@
       <c r="J19" t="n">
         <v>52</v>
       </c>
-      <c r="K19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>-3.448275862068965</v>
+      </c>
       <c r="L19" t="n">
         <v>232</v>
       </c>
@@ -1277,7 +1293,9 @@
       <c r="J20" t="n">
         <v>53</v>
       </c>
-      <c r="K20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>66.66666666666666</v>
+      </c>
       <c r="L20" t="n">
         <v>232</v>
       </c>
@@ -1322,7 +1340,9 @@
       <c r="J21" t="n">
         <v>54</v>
       </c>
-      <c r="K21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>57.14285714285714</v>
+      </c>
       <c r="L21" t="n">
         <v>233.3</v>
       </c>
@@ -1369,7 +1389,9 @@
       <c r="J22" t="n">
         <v>57</v>
       </c>
-      <c r="K22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>7.692307692307693</v>
+      </c>
       <c r="L22" t="n">
         <v>233.8</v>
       </c>
@@ -1417,7 +1439,7 @@
         <v>59</v>
       </c>
       <c r="K23" t="n">
-        <v>-8.474576271186439</v>
+        <v>-6.666666666666667</v>
       </c>
       <c r="L23" t="n">
         <v>233.7</v>
@@ -1466,7 +1488,7 @@
         <v>62</v>
       </c>
       <c r="K24" t="n">
-        <v>-3.225806451612903</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L24" t="n">
         <v>233.9</v>
